--- a/biology/Médecine/Loránd_Gáspár/Loránd_Gáspár.xlsx
+++ b/biology/Médecine/Loránd_Gáspár/Loránd_Gáspár.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lor%C3%A1nd_G%C3%A1sp%C3%A1r</t>
+          <t>Loránd_Gáspár</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loránd Gáspár, né à Târgu Mureș en Transylvanie orientale le 28 février 1925 et mort le 9 octobre 2019 à Paris[1],[2], est un poète, médecin, historien, photographe et traducteur français d’origine hongroise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loránd Gáspár, né à Târgu Mureș en Transylvanie orientale le 28 février 1925 et mort le 9 octobre 2019 à Paris est un poète, médecin, historien, photographe et traducteur français d’origine hongroise.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lor%C3%A1nd_G%C3%A1sp%C3%A1r</t>
+          <t>Loránd_Gáspár</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Déporté durant la Seconde Guerre mondiale, Loránd Gáspár se réfugie en France où il fait des études de médecine. Chirurgien de l’hôpital français de Jérusalem de 1954 à 1970[3], il pratique ensuite au CHU Charles-Nicolle à Tunis de 1970 à 1995[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Déporté durant la Seconde Guerre mondiale, Loránd Gáspár se réfugie en France où il fait des études de médecine. Chirurgien de l’hôpital français de Jérusalem de 1954 à 1970, il pratique ensuite au CHU Charles-Nicolle à Tunis de 1970 à 1995. 
 Médecine et écriture sont intimement liées dans l’œuvre de Gaspar, tout comme dans la vie de l’homme. Nombre de ses créations évoquent ce lien à la fois invisible et indestructible qui unit le médecin au poète.[Interprétation personnelle ?] 
-Son premier recueil, Le Quatrième État de la matière, publié chez Flammarion en 1966 reçoit le prix Guillaume-Apollinaire en 1967[5]. Par la suite son œuvre sera couronnée de multiples prix. En 1998, il reçoit le prix Goncourt de la poésie pour l’ensemble de son œuvre[6].
-Il fonde et codirige, avec Jacqueline Daoud (née Jacqueline Gutmann, elle est la sœur de Jean Babilée[7] ; elle deviendra la seconde épouse de Loránd Gáspár[8]) et Salah Garmadi, la revue tunisienne Alif éditée par la maison d'édition Cérés[9] dont douze numéros paraîtront entre 1970 et 1982 [10].
-Loránd Gáspár s'intéresse également au domaine des neurosciences et a publié en 2008 un ouvrage en collaboration intitulé L’intelligence du stress. De 2002 à 2008, il a collaboré avec l’Institut de médecine environnementale (IME) dans la recherche cérébrale aux côtés de Jacques Fradin, Camille Lefrançois, Frédéric Le Moullec[11], et a écrit de nombreux articles concernant la vision neuro-cognitive[12]. [Interprétation personnelle ?]
-Famille
-Marié à Francine Gaspar (artiste peintre), Loránd Gáspár a trois enfants : François Gaspar (1951-2011, metteur en scène connu sous le nom de François Abou Salem), Patricia Gaspar (neurobiologiste) et Stéphane Gaspar (dentiste).
+Son premier recueil, Le Quatrième État de la matière, publié chez Flammarion en 1966 reçoit le prix Guillaume-Apollinaire en 1967. Par la suite son œuvre sera couronnée de multiples prix. En 1998, il reçoit le prix Goncourt de la poésie pour l’ensemble de son œuvre.
+Il fonde et codirige, avec Jacqueline Daoud (née Jacqueline Gutmann, elle est la sœur de Jean Babilée ; elle deviendra la seconde épouse de Loránd Gáspár) et Salah Garmadi, la revue tunisienne Alif éditée par la maison d'édition Cérés dont douze numéros paraîtront entre 1970 et 1982 .
+Loránd Gáspár s'intéresse également au domaine des neurosciences et a publié en 2008 un ouvrage en collaboration intitulé L’intelligence du stress. De 2002 à 2008, il a collaboré avec l’Institut de médecine environnementale (IME) dans la recherche cérébrale aux côtés de Jacques Fradin, Camille Lefrançois, Frédéric Le Moullec, et a écrit de nombreux articles concernant la vision neuro-cognitive. [Interprétation personnelle ?]
 </t>
         </is>
       </c>
@@ -530,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lor%C3%A1nd_G%C3%A1sp%C3%A1r</t>
+          <t>Loránd_Gáspár</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Citations</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>« La médecine tend à prendre toute la place dans mon quotidien, elle s’insinue jusque dans le sommeil. On ne négocie pas avec l'urgence. Mais plus on est bousculé, plus il est impérieux de s'arrêter, de regarder, de s’aérer. Le temps de noter une idée, un étonnement. Ces feuilles me sont une façon de respirer. » (Feuilles d’observation)
-« Et si les mots s’avèrent parfois impuissants à communiquer un moment de « vraie vie », à faire partager ce qui nous est apparu comme une connaissance vive, puissent-ils du moins témoigner d'un immense désir de lumière partageable. » (Feuilles d’observation)
-« L'homme est un miracle dont la vie sur Terre jamais peut-être ne guérira. » (Approche de la parole)</t>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marié à Francine Gaspar (artiste peintre), Loránd Gáspár a trois enfants : François Gaspar (1951-2011, metteur en scène connu sous le nom de François Abou Salem), Patricia Gaspar (neurobiologiste) et Stéphane Gaspar (dentiste).
+</t>
         </is>
       </c>
     </row>
@@ -562,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lor%C3%A1nd_G%C3%A1sp%C3%A1r</t>
+          <t>Loránd_Gáspár</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +594,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« La médecine tend à prendre toute la place dans mon quotidien, elle s’insinue jusque dans le sommeil. On ne négocie pas avec l'urgence. Mais plus on est bousculé, plus il est impérieux de s'arrêter, de regarder, de s’aérer. Le temps de noter une idée, un étonnement. Ces feuilles me sont une façon de respirer. » (Feuilles d’observation)
+« Et si les mots s’avèrent parfois impuissants à communiquer un moment de « vraie vie », à faire partager ce qui nous est apparu comme une connaissance vive, puissent-ils du moins témoigner d'un immense désir de lumière partageable. » (Feuilles d’observation)
+« L'homme est un miracle dont la vie sur Terre jamais peut-être ne guérira. » (Approche de la parole)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Loránd_Gáspár</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lor%C3%A1nd_G%C3%A1sp%C3%A1r</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Quatrième État de la matière, Paris, Flammarion, 1966, prix Guillaume-Apollinaire, 1967
@@ -602,8 +655,43 @@
 Patmos et autres poèmes, Paris, Gallimard, 2001.
 Approche de la lumière/Közelítés a fényhez/Abordarea luminii. Avec un essai de/Az utószót írta/Cu un eseu de András Visky, Kolozsvár/Cluj-Napoca, Koinónia, 2008.
 Derrière le dos de Dieu, Paris, Gallimard, 2010. Prix Heredia de l’Académie française 2011
-Traductions
-Loránd Gáspár a traduit D.H. Lawrence, Rainer Maria Rilke, Georges Séféris…, plusieurs poètes hongrois, notamment Janos Pilinszky.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Loránd_Gáspár</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lor%C3%A1nd_G%C3%A1sp%C3%A1r</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Loránd Gáspár a traduit D.H. Lawrence, Rainer Maria Rilke, Georges Séféris…, plusieurs poètes hongrois, notamment Janos Pilinszky.
 Rainer Maria Rilke, Les élégies de Duino, suivi de Les sonnets à Orphée, traduction de Loránd Gáspár, dans R. M. Rilke, Œuvres, t. 2, Seuil, Paris, 1972.
 D.H. Lawrence, Sous l’étoile du chien, Loránd Gáspár (trad.) avec Sarah Clair, Paris, Orphée/La Différence, 1989.
 János Pilinszky, Poèmes choisis, Loránd Gáspár (trad.) avec Sarah Clair, Paris, Gallimard, "Du monde entier", 1982.
